--- a/06-03-2023/data/output/xlsx/sample_0/4_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/4_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,112 +352,40 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
   </si>
 </sst>
 </file>
@@ -797,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,22 +780,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.1186575448965255</v>
+        <v>0.2018813647295198</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.0743801652892562</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="G2">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H2">
-        <v>0.002235876712101889</v>
+        <v>0.0005287782958113413</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -860,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.1187776307219648</v>
+        <v>0.1912610728984527</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.08263473053892216</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G3">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H3">
-        <v>0.01049044196176785</v>
+        <v>0.002989449974328831</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -886,22 +832,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>-0.05320212492286619</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
       </c>
       <c r="F4">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H4">
-        <v>0.0187648023319366</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -912,22 +855,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>-0.04499741596186579</v>
-      </c>
-      <c r="E5" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H5">
-        <v>0.03896682253395679</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -940,20 +880,17 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>-0.04499741596186579</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
+      <c r="D6" t="s">
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H6">
-        <v>0.03896682253395679</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -967,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H7">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -990,16 +927,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H8">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1010,19 +947,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H9">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1033,19 +970,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H10">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1056,19 +993,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.179528471935478</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.06981981981981981</v>
       </c>
       <c r="G11">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H11">
-        <v>-0.07214428857715431</v>
+        <v>0.006693567314809801</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1079,22 +1019,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
-      </c>
-      <c r="D12">
-        <v>0.0989597763946924</v>
-      </c>
-      <c r="E12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
         <v>111</v>
       </c>
       <c r="F12">
-        <v>0.07259953161592506</v>
+        <v>0.05483870967741936</v>
       </c>
       <c r="G12">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H12">
-        <v>0.0004552430387707446</v>
+        <v>-0.008287542827590658</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1105,22 +1042,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>0.1086734983887308</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.07457627118644068</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="G13">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H13">
-        <v>0.002431982609286371</v>
+        <v>-0.01362130200996051</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1131,22 +1065,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14">
-        <v>0.03658703114372031</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.09714285714285714</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="G14">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H14">
-        <v>0.02499856856570283</v>
+        <v>-0.01707362092606265</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1157,22 +1088,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>0.02044486336801189</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.07692307692307693</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="G15">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H15">
-        <v>0.004778788345922616</v>
+        <v>-0.01210584434174471</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1183,19 +1111,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
-        <v>0.0641025641025641</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G16">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H16">
-        <v>-0.008041724474590214</v>
+        <v>-0.04842037015206883</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1206,22 +1134,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>0.02813518851220796</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>0.07692307692307693</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G17">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H17">
-        <v>0.004778788345922616</v>
+        <v>-0.03987043855152164</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1235,16 +1160,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0.03846153846153846</v>
       </c>
       <c r="G18">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H18">
-        <v>-0.03368275011561585</v>
+        <v>-0.02466471404347155</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1255,19 +1180,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>0.05882352941176471</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="G19">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H19">
-        <v>-0.01332075916538961</v>
+        <v>-0.001964172994306651</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1278,19 +1203,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
+        <v>527</v>
+      </c>
+      <c r="D20">
+        <v>0.172944967670615</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
       </c>
       <c r="F20">
-        <v>0.06769230769230769</v>
+        <v>0.06831119544592031</v>
       </c>
       <c r="G20">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H20">
-        <v>-0.004451980884846621</v>
+        <v>0.005184942940910292</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1301,22 +1229,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.0851525120631864</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.07279693486590039</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G21">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H21">
-        <v>0.0006526462887460754</v>
+        <v>-0.03748522686398437</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1327,19 +1252,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G22">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H22">
-        <v>-0.01658873302159876</v>
+        <v>-0.0196479916354448</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1350,22 +1275,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>-0.01043781180270577</v>
-      </c>
-      <c r="E23" t="s">
-        <v>117</v>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
       </c>
       <c r="F23">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H23">
-        <v>0.001929785496919759</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1376,22 +1298,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>0.016291688612624</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H24">
-        <v>0.05285571142284569</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1402,22 +1321,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>0.03435821874650843</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H25">
-        <v>0.09452237808951235</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1428,22 +1344,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>-0.005367452969482135</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
       </c>
       <c r="F26">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H26">
-        <v>0.03896682253395679</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1456,20 +1369,17 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27">
-        <v>0.007757151006821886</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
+      <c r="D27" t="s">
+        <v>111</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H27">
-        <v>0.05285571142284569</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1480,22 +1390,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>0.1164517359383098</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H28">
-        <v>0.1778557114228457</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1506,22 +1413,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>0.1710770861289596</v>
-      </c>
-      <c r="E29" t="s">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H29">
-        <v>0.261189044756179</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1534,20 +1438,17 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>0.1710770861289596</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
+      <c r="D30" t="s">
+        <v>111</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H30">
-        <v>0.261189044756179</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1558,19 +1459,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="G31">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H31">
-        <v>-0.07214428857715431</v>
+        <v>-0.002885288649588327</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1581,19 +1482,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.0583941605839416</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H32">
-        <v>-0.01375012799321271</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1604,19 +1505,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H33">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1630,16 +1531,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H34">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1650,19 +1551,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.0627062706270627</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H35">
-        <v>-0.009438017950091609</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1673,19 +1574,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.05314009661835749</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H36">
-        <v>-0.01900419195879682</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1696,19 +1597,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.05521472392638037</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H37">
-        <v>-0.01692956465077394</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1719,19 +1620,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H38">
-        <v>-0.0007157171485828867</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1742,19 +1643,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.06741573033707865</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H39">
-        <v>-0.004728558240075662</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1765,22 +1666,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>0.08849683767436238</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.0847457627118644</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H40">
-        <v>0.01260147413471009</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1791,19 +1689,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H41">
-        <v>-0.005477621910487646</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1814,22 +1712,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.1170537824374581</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.07228915662650602</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G42">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H42">
-        <v>0.0001448680493517096</v>
+        <v>-0.009072198450955957</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1840,22 +1735,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.1170875332568746</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.07265388496468214</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="G43">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H43">
-        <v>0.0005095963875278303</v>
+        <v>-0.02591695017942862</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1866,19 +1758,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G44">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H44">
-        <v>-0.07214428857715431</v>
+        <v>-0.03300577057729917</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1889,19 +1781,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="G45">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H45">
-        <v>-0.07214428857715431</v>
+        <v>-0.03060592730175798</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1912,19 +1804,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G46">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H46">
-        <v>-0.07214428857715431</v>
+        <v>-0.05281697415449455</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1935,19 +1827,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.05392912172573189</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G47">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H47">
-        <v>-0.01821516685142242</v>
+        <v>-0.0496127389914965</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1958,19 +1850,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.05052631578947368</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G48">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H48">
-        <v>-0.02161797278768063</v>
+        <v>-0.04229291917167669</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1981,19 +1873,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.2099244677750743</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
       </c>
       <c r="F49">
-        <v>0.05863192182410423</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="G49">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H49">
-        <v>-0.01351236675305008</v>
+        <v>0.0001267595431827528</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2004,19 +1899,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.2101206369029237</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
       </c>
       <c r="F50">
-        <v>0.06437768240343347</v>
+        <v>0.06376518218623482</v>
       </c>
       <c r="G50">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H50">
-        <v>-0.007766606173720839</v>
+        <v>0.0006389296812248091</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2027,22 +1925,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
-      </c>
-      <c r="D51">
-        <v>-0.06255404012319028</v>
-      </c>
-      <c r="E51" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
       </c>
       <c r="F51">
-        <v>0.07792207792207792</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H51">
-        <v>0.005777789344923609</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2053,22 +1948,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
-      </c>
-      <c r="D52">
-        <v>0.03370477575405244</v>
-      </c>
-      <c r="E52" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.07920792079207921</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H52">
-        <v>0.007063632214924898</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2079,19 +1971,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H53">
-        <v>-0.03988622406102528</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2102,19 +1994,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H54">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2125,19 +2017,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.03240740740740741</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H55">
-        <v>-0.03973688116974691</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2148,19 +2040,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.03508771929824561</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H56">
-        <v>-0.0370565692789087</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2171,22 +2063,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>-0.008948718899974681</v>
-      </c>
-      <c r="E57" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H57">
-        <v>0.03896682253395679</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2197,22 +2086,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>0.03538128800157023</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
+        <v>636</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
       </c>
       <c r="F58">
-        <v>0.125</v>
+        <v>0.04088050314465409</v>
       </c>
       <c r="G58">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H58">
-        <v>0.05285571142284569</v>
+        <v>-0.02224574936035593</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2223,22 +2109,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>0.05294072564750407</v>
-      </c>
-      <c r="E59" t="s">
-        <v>132</v>
+        <v>486</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
       </c>
       <c r="F59">
-        <v>0.1666666666666667</v>
+        <v>0.03909465020576132</v>
       </c>
       <c r="G59">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H59">
-        <v>0.09452237808951235</v>
+        <v>-0.02403160229924869</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2249,19 +2132,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.034375</v>
       </c>
       <c r="G60">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H60">
-        <v>-0.07214428857715431</v>
+        <v>-0.02875125250501001</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2272,19 +2155,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G61">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H61">
-        <v>-0.07214428857715431</v>
+        <v>-0.02922794742026425</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2295,19 +2178,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="G62">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H62">
-        <v>-0.07214428857715431</v>
+        <v>-0.02719810879243516</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2321,16 +2204,16 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F63">
         <v>0.03636363636363636</v>
       </c>
       <c r="G63">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H63">
-        <v>-0.03578065221351795</v>
+        <v>-0.02676261614137365</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2341,19 +2224,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.04301075268817205</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G64">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H64">
-        <v>-0.02913353588898226</v>
+        <v>-0.03235702173577924</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2364,19 +2247,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.02898550724637681</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G65">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H65">
-        <v>-0.0431587813307775</v>
+        <v>-0.004302723093245309</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2387,19 +2270,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0.03773584905660377</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G66">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H66">
-        <v>-0.03440843952055054</v>
+        <v>-0.03645958583834334</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2410,19 +2293,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0.0625</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G67">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H67">
-        <v>-0.009644288577154311</v>
+        <v>-0.03503636486456058</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2433,22 +2316,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>-0.06196381130121024</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H68">
-        <v>0.00785571142284569</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2459,22 +2339,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
-      </c>
-      <c r="D69">
-        <v>-0.04087467969980063</v>
-      </c>
-      <c r="E69" t="s">
-        <v>134</v>
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
       </c>
       <c r="F69">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H69">
-        <v>0.0455027702463751</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2485,22 +2362,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>-0.01883677263809745</v>
-      </c>
-      <c r="E70" t="s">
-        <v>135</v>
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
       </c>
       <c r="F70">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H70">
-        <v>0.0187648023319366</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2511,19 +2385,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.07214428857715431</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2534,22 +2408,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.1225222399884004</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.09322033898305085</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H72">
-        <v>0.02107605040589654</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2560,19 +2431,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H73">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2583,22 +2454,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.1393874805742809</v>
-      </c>
-      <c r="E74" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.1239669421487603</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H74">
-        <v>0.05182265357160602</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2609,22 +2477,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75">
-        <v>0.1097894013010606</v>
-      </c>
-      <c r="E75" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.1296296296296296</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="G75">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H75">
-        <v>0.05748534105247531</v>
+        <v>-0.03703929598327088</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2635,22 +2500,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
-      </c>
-      <c r="D76">
-        <v>0.08385211318573556</v>
-      </c>
-      <c r="E76" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0.09677419354838709</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G76">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H76">
-        <v>0.02462990497123278</v>
+        <v>-0.04013774675788358</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2661,22 +2523,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>0.148836640408888</v>
-      </c>
-      <c r="E77" t="s">
-        <v>140</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.09523809523809523</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G77">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H77">
-        <v>0.02309380666094092</v>
+        <v>-0.04526910964786716</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2687,22 +2546,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>0.0829196614584217</v>
-      </c>
-      <c r="E78" t="s">
-        <v>141</v>
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H78">
-        <v>0.0187648023319366</v>
+        <v>-0.04090403028278779</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2713,19 +2569,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G79">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H79">
-        <v>-0.07214428857715431</v>
+        <v>-0.0274119667907243</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2736,19 +2592,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G80">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H80">
-        <v>-0.07214428857715431</v>
+        <v>-0.0155072048859624</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2759,19 +2615,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H81">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2782,19 +2638,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.0437636761487965</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H82">
-        <v>-0.02838061242835781</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2805,19 +2661,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="D83">
+        <v>0.209867633070835</v>
+      </c>
+      <c r="E83" t="s">
+        <v>118</v>
       </c>
       <c r="F83">
-        <v>0.03333333333333333</v>
+        <v>0.06318956870611836</v>
       </c>
       <c r="G83">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H83">
-        <v>-0.03881095524382098</v>
+        <v>6.331620110834602E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2828,19 +2687,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>105</v>
+        <v>704</v>
+      </c>
+      <c r="D84">
+        <v>0.1871633823164673</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.07244318181818182</v>
       </c>
       <c r="G84">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H84">
-        <v>-0.07214428857715431</v>
+        <v>0.00931692931317181</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2851,19 +2713,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="G85">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H85">
-        <v>-0.07214428857715431</v>
+        <v>-0.02951280712685875</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2874,19 +2736,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G86">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H86">
-        <v>-0.07214428857715431</v>
+        <v>-0.0104946735576416</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2897,19 +2759,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G87">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H87">
-        <v>-0.07214428857715431</v>
+        <v>-0.02466471404347155</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2920,19 +2782,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G88">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H88">
-        <v>-0.07214428857715431</v>
+        <v>-0.007570696949454461</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2943,19 +2805,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>0.1839019607478115</v>
+      </c>
+      <c r="E89" t="s">
+        <v>120</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G89">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H89">
-        <v>-0.07214428857715431</v>
+        <v>0.0277828384040809</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2966,19 +2831,22 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>0.3161536101938523</v>
+      </c>
+      <c r="E90" t="s">
+        <v>121</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H90">
-        <v>-0.07214428857715431</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2989,19 +2857,22 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>0.4980748065539009</v>
+      </c>
+      <c r="E91" t="s">
+        <v>122</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G91">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H91">
-        <v>-0.07214428857715431</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3012,19 +2883,22 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.9526849579386785</v>
+      </c>
+      <c r="E92" t="s">
+        <v>123</v>
       </c>
       <c r="F92">
-        <v>0.03191489361702127</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H92">
-        <v>-0.04022939496013304</v>
+        <v>0.93687374749499</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3035,19 +2909,19 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F93">
-        <v>0.03636363636363636</v>
+        <v>0.04506437768240344</v>
       </c>
       <c r="G93">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H93">
-        <v>-0.03578065221351795</v>
+        <v>-0.01806187482260658</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3058,19 +2932,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
-        <v>0.03333333333333333</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G94">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H94">
-        <v>-0.03881095524382098</v>
+        <v>-0.0305175568528361</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3081,19 +2955,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H95">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3104,19 +2978,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H96">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3127,19 +3001,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H97">
-        <v>-0.07214428857715431</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3150,19 +3024,19 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G98">
-        <v>0.07214428857715431</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H98">
-        <v>-0.07214428857715431</v>
+        <v>-0.05136154662265707</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3173,19 +3047,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H99">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.07214428857715431</v>
-      </c>
-      <c r="H99">
-        <v>-0.07214428857715431</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H100">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H101">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H102">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H103">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H104">
+        <v>-0.06312625250501001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H105">
+        <v>-0.06312625250501001</v>
       </c>
     </row>
   </sheetData>
